--- a/Tarea_8_Perceptron_Multicapa/tabla_para_probar.xlsx
+++ b/Tarea_8_Perceptron_Multicapa/tabla_para_probar.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="plateau" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="question_12" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t xml:space="preserve">x1</t>
   </si>
@@ -63,8 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -257,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +342,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -426,7 +448,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,7 +714,7 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1084,4 +1106,103 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="22" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="n">
+        <v>1.0986</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="25" t="n">
+        <v>1.3863</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="25" t="n">
+        <v>1.6094</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B5" s="25" t="n">
+        <v>1.7918</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="n">
+        <v>1.9459</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>